--- a/Data/Regression/news_index_senti_lex_PMI.xlsx
+++ b/Data/Regression/news_index_senti_lex_PMI.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05600523894953117</v>
+        <v>0.1240967663827439</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06612770276303463</v>
+        <v>0.1050853165063879</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04369822903007987</v>
+        <v>0.106499372696448</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07418250194841593</v>
+        <v>0.1069300134496693</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01986262298011887</v>
+        <v>0.06932390180426334</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09315560153781904</v>
+        <v>0.127103515338253</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0256140713719133</v>
+        <v>0.09661745584878263</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05645648050182048</v>
+        <v>0.08611574492165858</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07034655261334435</v>
+        <v>0.1070901397121782</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04150440455381855</v>
+        <v>0.1048612608975648</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06152762487553629</v>
+        <v>0.1214846817535996</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06738165738388614</v>
+        <v>0.1054201024100749</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06245653286370226</v>
+        <v>0.1254354767485621</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01273881132533426</v>
+        <v>0.0587012848131113</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04937623684572538</v>
+        <v>0.09081074249358438</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05239318811449289</v>
+        <v>0.1099632918944622</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001303076255002449</v>
+        <v>0.07628805235501886</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06165065658436843</v>
+        <v>0.08866510153716178</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04714512228110422</v>
+        <v>0.09423731921363182</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.04197806238709342</v>
+        <v>0.08352221175602068</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.05370071241145265</v>
+        <v>0.08647059527264896</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06372162951258173</v>
+        <v>0.1202236490265934</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1097305966582049</v>
+        <v>0.1347090336925621</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.05798220882650287</v>
+        <v>0.1205992624633804</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.04649912468822322</v>
+        <v>0.1137148835919326</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.04493508243595718</v>
+        <v>0.1192857491191842</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0365689822782716</v>
+        <v>0.09373428700953337</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0733461406600448</v>
+        <v>0.1003541761633894</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04525486993035849</v>
+        <v>0.08037658373767159</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04653890726700092</v>
+        <v>0.08538498157058758</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.09900400873990926</v>
+        <v>0.1352254243940951</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.08141983529218004</v>
+        <v>0.1288871559218768</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.07247180594402754</v>
+        <v>0.08932065518476962</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1082996747361794</v>
+        <v>0.1397343319246765</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1092527385450766</v>
+        <v>0.1369216473002133</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.08637803949711823</v>
+        <v>0.1446380438927302</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.04576758774620045</v>
+        <v>0.07894970046008375</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.04145087310032597</v>
+        <v>0.09578076733782917</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.04412031422748227</v>
+        <v>0.1332658134151312</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.06080236748945424</v>
+        <v>0.1249369533938956</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1088901895548965</v>
+        <v>0.1372008456671248</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.04174083825502325</v>
+        <v>0.1072800082332745</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.05901333380254995</v>
+        <v>0.09195009276211764</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.09525699510046723</v>
+        <v>0.1297504202181984</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1114173427514292</v>
+        <v>0.1422095465079632</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.06471199980879426</v>
+        <v>0.1089533550027311</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1588777941813279</v>
+        <v>0.1687679888989781</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1009405026432574</v>
+        <v>0.1511598592733342</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.08725212804558216</v>
+        <v>0.1178259143215791</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.05531880320184353</v>
+        <v>0.1012158791266361</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.03487109292073955</v>
+        <v>0.09647253081773743</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.05026716603606203</v>
+        <v>0.08785913160191362</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.04264499308796426</v>
+        <v>0.1053684711483852</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1179334131699787</v>
+        <v>0.138886560090702</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.125242199135727</v>
+        <v>0.1471890503667813</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1111198274837435</v>
+        <v>0.1407484123064593</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1157466393358502</v>
+        <v>0.1477184661938963</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1367995129162808</v>
+        <v>0.1673709321549483</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.07054677902904756</v>
+        <v>0.0794629312089466</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1023653061445629</v>
+        <v>0.1439206251911764</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.05750551953865207</v>
+        <v>0.119717110137714</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0318701324792645</v>
+        <v>0.1190080303070673</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.05216972846255483</v>
+        <v>0.09860345566781722</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0408469658130997</v>
+        <v>0.1213054928946094</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.121801023038017</v>
+        <v>0.1510777646151588</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.07968216268886669</v>
+        <v>0.08819610567697291</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.09926875525877808</v>
+        <v>0.1089060983518384</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.06128577902843592</v>
+        <v>0.09586645294979383</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1388011596112111</v>
+        <v>0.1313044380004348</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.03813629421443904</v>
+        <v>0.1213674878258677</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1018851030712306</v>
+        <v>0.1460773800142549</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1243316809082361</v>
+        <v>0.1320180906810127</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02008241288012659</v>
+        <v>0.1038919698062215</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.06756113097923452</v>
+        <v>0.1195352267634728</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.08465183590827668</v>
+        <v>0.1022689873518765</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1083183868162549</v>
+        <v>0.1277908786029885</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1043881013272309</v>
+        <v>0.114858621554716</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.09938262382684512</v>
+        <v>0.1360281648121888</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1059189894857498</v>
+        <v>0.1288316194500017</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.07514441015711833</v>
+        <v>0.1468713169139919</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1475910336888139</v>
+        <v>0.147060708360633</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.06789713270125161</v>
+        <v>0.1362439989716669</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.05790389436317152</v>
+        <v>0.1307891549655299</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1184452762148036</v>
+        <v>0.1471162263300002</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.05430629340732115</v>
+        <v>0.06559821827422925</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1060600687203092</v>
+        <v>0.1603124003320602</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.06214933539006055</v>
+        <v>0.08528033473019887</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.09206415408912345</v>
+        <v>0.1180144131222136</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.08666335913608876</v>
+        <v>0.1028378251582552</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.09281594207960099</v>
+        <v>0.1206532636143726</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.08981225907671843</v>
+        <v>0.1518845060145697</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.03701780205819494</v>
+        <v>0.08844906314661342</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.03754196205597362</v>
+        <v>0.06566519453861835</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.02896412824664568</v>
+        <v>0.07587477856275926</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.04017692098502234</v>
+        <v>0.07757005412943488</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.07917353499322376</v>
+        <v>0.1043789591551144</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.05268596278934971</v>
+        <v>0.09973779162262297</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.04803545709873113</v>
+        <v>0.06162877207880604</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.09804285987832279</v>
+        <v>0.1169563973556754</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.09384715560994746</v>
+        <v>0.1320637742028843</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.02077310098637084</v>
+        <v>0.09191279666197866</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.024134342477909</v>
+        <v>0.06184075871341736</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.05420676844001006</v>
+        <v>0.1026093917221938</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1143352208071843</v>
+        <v>0.1483260113090867</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1064979336119772</v>
+        <v>0.1219963965499209</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.03260684435181117</v>
+        <v>0.09916512331046395</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.07395636221326089</v>
+        <v>0.1256667306276002</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.108133370306782</v>
+        <v>0.1623876433931943</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.07917781809813833</v>
+        <v>0.1221562325242023</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.1111911338728289</v>
+        <v>0.1471684724939262</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.03144596501258235</v>
+        <v>0.06671773436496993</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1002742129972174</v>
+        <v>0.1359444630621465</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.06984381590059122</v>
+        <v>0.103573032137209</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.08097409044279108</v>
+        <v>0.1257247864267142</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.09952474259618051</v>
+        <v>0.132429579056265</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.07896079579710533</v>
+        <v>0.1216261675152424</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.0436507558652393</v>
+        <v>0.08708934032525951</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1023408634806769</v>
+        <v>0.1227206866485713</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1111918578953676</v>
+        <v>0.1366113851487096</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.06828905281561994</v>
+        <v>0.1018077134387703</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.08308234998759821</v>
+        <v>0.1197119584813877</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.03492032736115995</v>
+        <v>0.1284194701711146</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.09583863826985559</v>
+        <v>0.1144304252438405</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.08630528831910543</v>
+        <v>0.1233657353239254</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.08601520516890834</v>
+        <v>0.1212054633928444</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.0544238385161367</v>
+        <v>0.1030277474481643</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.06759979403877023</v>
+        <v>0.09527664159470385</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.08986905118766844</v>
+        <v>0.12609877909961</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.04994135143389224</v>
+        <v>0.08235737247921328</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.08740139280893017</v>
+        <v>0.1276306044173902</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.1410974642981806</v>
+        <v>0.1636403911546384</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.06246799724863496</v>
+        <v>0.111772242138739</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.07740910922048438</v>
+        <v>0.1299740739372822</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.08685522969415728</v>
+        <v>0.138322898777976</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.0781821491922778</v>
+        <v>0.1142355376154551</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.1305593431043454</v>
+        <v>0.1421635665380947</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.04613360389421389</v>
+        <v>0.09239866845279211</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.07115247076436711</v>
+        <v>0.1305196368114</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.07624360452275619</v>
+        <v>0.1049714281794469</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.08628934478562918</v>
+        <v>0.1359595500440426</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.08129189775754263</v>
+        <v>0.09601666389381112</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.06572370482007253</v>
+        <v>0.09542140088667676</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.07350221001442041</v>
+        <v>0.1175982071612049</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.05923224226497986</v>
+        <v>0.1096043689090889</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.03846323342107696</v>
+        <v>0.08156643043258686</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.0669658490689934</v>
+        <v>0.08765027328717724</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.07521744977904173</v>
+        <v>0.108901210876144</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.08308391596130721</v>
+        <v>0.1297495913172081</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-0.01678382112384803</v>
+        <v>0.02847241363985098</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.04896523720000222</v>
+        <v>0.07771769196669501</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.03082916917760089</v>
+        <v>0.07897023307431474</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.1109874664625733</v>
+        <v>0.1292233869727387</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.0899780829270463</v>
+        <v>0.1216848672922193</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.09179678335789643</v>
+        <v>0.117403476674557</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.1186242906649849</v>
+        <v>0.14282550860152</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.136093556825327</v>
+        <v>0.1453961750893212</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.09666186364345189</v>
+        <v>0.1225358969570378</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.12738705905662</v>
+        <v>0.1574536957257886</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.09158856574222617</v>
+        <v>0.1410301585990744</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.05124861059659094</v>
+        <v>0.08724075943059785</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.08094185387183751</v>
+        <v>0.1231012659183259</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.04458763073628552</v>
+        <v>0.08433168362798765</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.08799429119008058</v>
+        <v>0.1233404163398373</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.06054217885367358</v>
+        <v>0.09625835553785558</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.056230703334552</v>
+        <v>0.07294131637081588</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.03931594271509452</v>
+        <v>0.0970903114293605</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.08021277949848192</v>
+        <v>0.1159495446575135</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.1109183319530691</v>
+        <v>0.1305584107473566</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.08363468281279855</v>
+        <v>0.1298393847373304</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.08315205342903344</v>
+        <v>0.1072704212068034</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.08073177216312799</v>
+        <v>0.1172008960778327</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.02521577068032012</v>
+        <v>0.08844890475383413</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.09518857827815982</v>
+        <v>0.1295520838838658</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.05307534909922565</v>
+        <v>0.09125555691796444</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.08918079061346343</v>
+        <v>0.1374811896768966</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.06615679047163757</v>
+        <v>0.1048886640677236</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.05683846851023913</v>
+        <v>0.1003192491836696</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.08351132932061946</v>
+        <v>0.1085104792752503</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.08151837219096233</v>
+        <v>0.1180331850097359</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.05520475693167415</v>
+        <v>0.08804853242183594</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.06719692119907537</v>
+        <v>0.09611438931954837</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.0687476684621503</v>
+        <v>0.110166295095184</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.1016092385485527</v>
+        <v>0.1142369380776941</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.0861983097959302</v>
+        <v>0.1186741607380922</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.05629436221976104</v>
+        <v>0.1109993420363438</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.01748404343394837</v>
+        <v>0.05258591648517029</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.07836626479998954</v>
+        <v>0.114018136937629</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.07424527770435864</v>
+        <v>0.1017500341518174</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.09022477292015525</v>
+        <v>0.1262193740265287</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.06269270323309153</v>
+        <v>0.08839483775402067</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.04624715806393438</v>
+        <v>0.09751004954986527</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.07422051054838305</v>
+        <v>0.09897972331833892</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.09553356931738415</v>
+        <v>0.1174546592113916</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.06057614955514808</v>
+        <v>0.100550314863482</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.07522335507872031</v>
+        <v>0.1077662132046967</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.08832766878487885</v>
+        <v>0.1140349637727365</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.08665500750862823</v>
+        <v>0.1242002914963946</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.04540399498424024</v>
+        <v>0.09560892615780088</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.04090797390554272</v>
+        <v>0.07538093478750339</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.07622557026335169</v>
+        <v>0.09501552422640963</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.04833515457387778</v>
+        <v>0.08176947801581629</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.05663064100351263</v>
+        <v>0.100560668261124</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.07169586831285411</v>
+        <v>0.1198603727593022</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.05143412233852296</v>
+        <v>0.08178193150146135</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.03364447619490425</v>
+        <v>0.07295650514395664</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.03822381306318242</v>
+        <v>0.07017110785296521</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.0648813865247045</v>
+        <v>0.1039181111037729</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.05054011646390744</v>
+        <v>0.09709362422219592</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.05935031971775399</v>
+        <v>0.09548727537280333</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.05270818935957959</v>
+        <v>0.0886566780460703</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.05728735167197833</v>
+        <v>0.0911412395574962</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.07688104942133771</v>
+        <v>0.110998023385352</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.0599817067893065</v>
+        <v>0.1092678110568102</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.08351917033153482</v>
+        <v>0.1110033491787638</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.09996440690749435</v>
+        <v>0.1216251830223955</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.06171707202392557</v>
+        <v>0.09773674475458025</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.06051637354508965</v>
+        <v>0.1048017536309002</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.06717178199238666</v>
+        <v>0.112116446969788</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.05811871103664479</v>
+        <v>0.1015809632932148</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.07096186241573282</v>
+        <v>0.08273083697864433</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.02702732296284771</v>
+        <v>0.08286020792727626</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.07178344132485841</v>
+        <v>0.1167788389644331</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.05348823185819734</v>
+        <v>0.1040626509687893</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.04255328874775713</v>
+        <v>0.08173659292527147</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.06065227936666374</v>
+        <v>0.1226878667612065</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.06790285402433069</v>
+        <v>0.1000224583187549</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.07194241099446161</v>
+        <v>0.1131922117303638</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.0336071665671397</v>
+        <v>0.09500111781341253</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.03758713212704012</v>
+        <v>0.0997074446248449</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.06905647675629779</v>
+        <v>0.1033825232308101</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.05972090988575634</v>
+        <v>0.09425122210970122</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.07470706575449945</v>
+        <v>0.1349373056163684</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.02188643398283026</v>
+        <v>0.06278388473396877</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.06735808461883511</v>
+        <v>0.109816245978932</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.02544652270476973</v>
+        <v>0.06450675800129832</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.04634041253477964</v>
+        <v>0.07818820860666141</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.08636366579683208</v>
+        <v>0.1320308422641941</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.05292262289950553</v>
+        <v>0.09899365127031093</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.09259308800731146</v>
+        <v>0.1212184318267278</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.08215447422158206</v>
+        <v>0.1185306971996945</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.03810828196593623</v>
+        <v>0.1014872943600941</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.03651891839753196</v>
+        <v>0.08386063696338647</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.06684696128091291</v>
+        <v>0.09661825222953356</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.05147712277831291</v>
+        <v>0.09324763401891811</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.09987421073193421</v>
+        <v>0.1302304668016521</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.03440229557946377</v>
+        <v>0.09124190828212557</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.09676860602413433</v>
+        <v>0.1194872180707761</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.09969558752832869</v>
+        <v>0.1336214742243174</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.06913173093762713</v>
+        <v>0.1180681360133553</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.07304352728225486</v>
+        <v>0.1015390500074251</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.0865276783328484</v>
+        <v>0.113171864508188</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.09550024260824555</v>
+        <v>0.1293722196617161</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.08846354111850599</v>
+        <v>0.1339260245414345</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.1237723098344088</v>
+        <v>0.1583027339487892</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.08254223068813009</v>
+        <v>0.1309835879457451</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.06830718230618474</v>
+        <v>0.1217701870357647</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.08125407163731788</v>
+        <v>0.1251301818905269</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.08450423067721777</v>
+        <v>0.1441905469889285</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.1006482999740743</v>
+        <v>0.1414787776641287</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.09714183634522926</v>
+        <v>0.1353318303502054</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.02496151560975575</v>
+        <v>0.08142813401056229</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.1039799353340752</v>
+        <v>0.1260562782945054</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.07405406287481099</v>
+        <v>0.1167440735040733</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.08828863721568807</v>
+        <v>0.123851182711442</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.06034482669226119</v>
+        <v>0.1047207079360516</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.07355062580773715</v>
+        <v>0.113377776086771</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.04920017916577622</v>
+        <v>0.1158052115626975</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.01402314024667557</v>
+        <v>0.08973098317222929</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.07036983838782446</v>
+        <v>0.115126443048185</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.06419370354472589</v>
+        <v>0.1104906725952456</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.08591540390030328</v>
+        <v>0.1277080986728684</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.06047983403318441</v>
+        <v>0.1065669135093184</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.1104165915621002</v>
+        <v>0.147207815479524</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.1132647367022686</v>
+        <v>0.1513586823522377</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.05324272639003223</v>
+        <v>0.1214457007910432</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.1025743694889762</v>
+        <v>0.1382641541296614</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.05842344086939053</v>
+        <v>0.1131362817626416</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.07834947898378558</v>
+        <v>0.1223897376734506</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.05670243926424031</v>
+        <v>0.1129087273924346</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.04847075600700599</v>
+        <v>0.08973919339256256</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.06084991914451427</v>
+        <v>0.1137302702638237</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.02716088472725752</v>
+        <v>0.07736729043895225</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.06103801338024976</v>
+        <v>0.1178635322610019</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.09927743037114378</v>
+        <v>0.1309400811929524</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.03094471967260011</v>
+        <v>0.09330251192211687</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.08239013049516657</v>
+        <v>0.1179566809449609</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.05726326012592091</v>
+        <v>0.09609694837400307</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.08125529292289729</v>
+        <v>0.08986623953718291</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.03283927601946415</v>
+        <v>0.07496130518896017</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.06974770872552774</v>
+        <v>0.09378913925012071</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.02268537218632041</v>
+        <v>0.07840285534668219</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.06506550745727298</v>
+        <v>0.08297022785792472</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.07427645589439193</v>
+        <v>0.1169095175485711</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.1067134278728493</v>
+        <v>0.138719240688319</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.1177398736867994</v>
+        <v>0.141528483897624</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.05998052019833212</v>
+        <v>0.09190154170868978</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.09231959230745394</v>
+        <v>0.1250048314318193</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.06137822194609611</v>
+        <v>0.1059081459005602</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.05654989869599036</v>
+        <v>0.103384047428837</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.05683111144766639</v>
+        <v>0.1073241615235952</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.07607688984425937</v>
+        <v>0.1243783580371815</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.08026974490151284</v>
+        <v>0.1241335811235505</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.03166848624109751</v>
+        <v>0.08596592445232117</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.03830989460182064</v>
+        <v>0.06552602105678496</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.04080521862939376</v>
+        <v>0.09913542059481514</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.0449081010809022</v>
+        <v>0.08557566321533912</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.06825897466055118</v>
+        <v>0.09883108422034353</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.0763178407762026</v>
+        <v>0.1163589317742218</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.06594596512778822</v>
+        <v>0.1079843131904535</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.08596580164740138</v>
+        <v>0.1279882188259336</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.0834847391899793</v>
+        <v>0.1150718117675177</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.1011530765862647</v>
+        <v>0.1250459053374071</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.06008887884011438</v>
+        <v>0.1111660541493724</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.09894941199991128</v>
+        <v>0.131971848578823</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.07762136006455907</v>
+        <v>0.1379834755917139</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.07134435400501837</v>
+        <v>0.100798969903758</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.08679767801639975</v>
+        <v>0.1162384339029923</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.04467923396610841</v>
+        <v>0.09545026159497196</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.08981475539487846</v>
+        <v>0.1156577812712342</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.1003788511703134</v>
+        <v>0.138283658959643</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.05856564423447379</v>
+        <v>0.1057448162919809</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.06469145383285976</v>
+        <v>0.1001923782540466</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.0513683440472904</v>
+        <v>0.09958201432085678</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.1210896115347762</v>
+        <v>0.148406231687312</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.1021483336702721</v>
+        <v>0.131831618621403</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.0846228084882205</v>
+        <v>0.1191946751208345</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.0961976019106115</v>
+        <v>0.1312241310068553</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.09170861418769152</v>
+        <v>0.1369085809226115</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.08669958056471352</v>
+        <v>0.128525141758813</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.08326972027169424</v>
+        <v>0.1201661504422805</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.06049966254223615</v>
+        <v>0.113336746641959</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.04383300742954613</v>
+        <v>0.0938754934071661</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.04716467046960711</v>
+        <v>0.1097632763260159</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.0362604608643111</v>
+        <v>0.07876476812473054</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.05728373442727158</v>
+        <v>0.1251558539843357</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.04955819167661617</v>
+        <v>0.09991895256639245</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_senti_lex_PMI.xlsx
+++ b/Data/Regression/news_index_senti_lex_PMI.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1240967663827439</v>
+        <v>0.03171946724055712</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1050853165063879</v>
+        <v>0.03806111933130086</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.106499372696448</v>
+        <v>0.0383408527437901</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1069300134496693</v>
+        <v>0.08338051879735445</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06932390180426334</v>
+        <v>0.05828745759234846</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.127103515338253</v>
+        <v>0.03888771515056896</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09661745584878263</v>
+        <v>0.07815664948874522</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08611574492165858</v>
+        <v>0.05994022400978542</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1070901397121782</v>
+        <v>0.0988795337213689</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1048612608975648</v>
+        <v>0.09681928439885554</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1214846817535996</v>
+        <v>0.05954894315707288</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1054201024100749</v>
+        <v>0.06075195995405326</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1254354767485621</v>
+        <v>0.03820970778601319</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0587012848131113</v>
+        <v>0.05459625887834848</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09081074249358438</v>
+        <v>0.09705485725820995</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1099632918944622</v>
+        <v>0.06488808906007756</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07628805235501886</v>
+        <v>0.0119151219254207</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08866510153716178</v>
+        <v>0.03669945981347693</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09423731921363182</v>
+        <v>0.06375292497035569</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08352221175602068</v>
+        <v>0.06718845322941952</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.08647059527264896</v>
+        <v>0.06961166095379298</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1202236490265934</v>
+        <v>0.0860462922667907</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1347090336925621</v>
+        <v>0.05699077936319333</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1205992624633804</v>
+        <v>0.04781963535877661</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1137148835919326</v>
+        <v>0.06663427390959623</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1192857491191842</v>
+        <v>0.0762134383256234</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.09373428700953337</v>
+        <v>0.05131353967976864</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1003541761633894</v>
+        <v>0.01145298250224945</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.08037658373767159</v>
+        <v>0.04872361498700828</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.08538498157058758</v>
+        <v>0.0598399168324957</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1352254243940951</v>
+        <v>0.0818581960274118</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1288871559218768</v>
+        <v>0.07169583364348379</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.08932065518476962</v>
+        <v>0.04788792452278207</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1397343319246765</v>
+        <v>0.08027011465554776</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1369216473002133</v>
+        <v>0.06604992139613518</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1446380438927302</v>
+        <v>0.03785248345057573</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.07894970046008375</v>
+        <v>0.08352353028813247</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.09578076733782917</v>
+        <v>0.08420228639695583</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1332658134151312</v>
+        <v>0.06902466858748846</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1249369533938956</v>
+        <v>0.08231101584902098</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1372008456671248</v>
+        <v>0.04871428766255684</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1072800082332745</v>
+        <v>0.04621285908658449</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.09195009276211764</v>
+        <v>0.03293466569953939</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1297504202181984</v>
+        <v>0.08284916136159334</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1422095465079632</v>
+        <v>0.08183258327078334</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1089533550027311</v>
+        <v>0.07891244107600114</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1687679888989781</v>
+        <v>0.09619483174891877</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1511598592733342</v>
+        <v>0.1045244566896622</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1178259143215791</v>
+        <v>0.08336759851465363</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1012158791266361</v>
+        <v>0.06879491637194056</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.09647253081773743</v>
+        <v>0.07123543807765116</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.08785913160191362</v>
+        <v>0.06428844596853099</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1053684711483852</v>
+        <v>0.0928630392141603</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.138886560090702</v>
+        <v>0.08377352671769331</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1471890503667813</v>
+        <v>0.1054720577156078</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1407484123064593</v>
+        <v>0.1076113051773079</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1477184661938963</v>
+        <v>0.09828403542277622</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1673709321549483</v>
+        <v>0.1136160495774747</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0794629312089466</v>
+        <v>0.07106884311134955</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1439206251911764</v>
+        <v>0.02160803790979513</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.119717110137714</v>
+        <v>0.08953446488154075</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1190080303070673</v>
+        <v>0.09587608354034725</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.09860345566781722</v>
+        <v>0.08611105465142672</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1213054928946094</v>
+        <v>0.05565103334759332</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1510777646151588</v>
+        <v>0.0776634077565299</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.08819610567697291</v>
+        <v>0.04659588635754795</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1089060983518384</v>
+        <v>0.06608038820512532</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.09586645294979383</v>
+        <v>0.09922007663848179</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1313044380004348</v>
+        <v>0.04392987881511014</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1213674878258677</v>
+        <v>0.03672222273479847</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1460773800142549</v>
+        <v>0.03942150667259584</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1320180906810127</v>
+        <v>0.07221835301662255</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1038919698062215</v>
+        <v>0.05763606394964961</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1195352267634728</v>
+        <v>0.0564743717095929</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1022689873518765</v>
+        <v>0.1009892930461206</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1277908786029885</v>
+        <v>0.09061527653709242</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.114858621554716</v>
+        <v>0.06205493700706851</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1360281648121888</v>
+        <v>0.04950953335092026</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1288316194500017</v>
+        <v>0.07534955573160496</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1468713169139919</v>
+        <v>0.0734998634339688</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.147060708360633</v>
+        <v>0.05773352941436136</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1362439989716669</v>
+        <v>0.07849506133187595</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1307891549655299</v>
+        <v>0.02820373532420415</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1471162263300002</v>
+        <v>0.1030215320014788</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.06559821827422925</v>
+        <v>0.04736663691932476</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1603124003320602</v>
+        <v>0.09480100869072894</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.08528033473019887</v>
+        <v>0.06454294465840603</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1180144131222136</v>
+        <v>0.03798063341518462</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1028378251582552</v>
+        <v>0.04611285681304098</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1206532636143726</v>
+        <v>0.05091359215499709</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1518845060145697</v>
+        <v>0.05978171214488388</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.08844906314661342</v>
+        <v>0.04990007538272353</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.06566519453861835</v>
+        <v>0.0435434644738996</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.07587477856275926</v>
+        <v>0.06773606123389467</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.07757005412943488</v>
+        <v>0.03631743809050962</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1043789591551144</v>
+        <v>0.07418867252017392</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.09973779162262297</v>
+        <v>0.0181326410823388</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.06162877207880604</v>
+        <v>0.06922841540330074</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.1169563973556754</v>
+        <v>0.03262606600231858</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1320637742028843</v>
+        <v>0.1143179478266103</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.09191279666197866</v>
+        <v>0.003227696520450541</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.06184075871341736</v>
+        <v>0.05237287179465812</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1026093917221938</v>
+        <v>0.08770931698724234</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1483260113090867</v>
+        <v>0.0898440224998286</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1219963965499209</v>
+        <v>0.07029730160758085</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.09916512331046395</v>
+        <v>0.07282821018586745</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1256667306276002</v>
+        <v>0.07059450831699156</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1623876433931943</v>
+        <v>0.1166932235761446</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1221562325242023</v>
+        <v>0.07498666238937127</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.1471684724939262</v>
+        <v>0.09120482481036518</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.06671773436496993</v>
+        <v>0.07932941760660071</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1359444630621465</v>
+        <v>0.08889872610651978</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.103573032137209</v>
+        <v>0.07902486053901862</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.1257247864267142</v>
+        <v>0.08062941693767475</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.132429579056265</v>
+        <v>0.1235805689809072</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1216261675152424</v>
+        <v>0.07074707443234783</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.08708934032525951</v>
+        <v>0.07512847952341904</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1227206866485713</v>
+        <v>0.06951777556595114</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1366113851487096</v>
+        <v>0.1217056193479542</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.1018077134387703</v>
+        <v>0.1079090386518288</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.1197119584813877</v>
+        <v>0.07649239666182321</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.1284194701711146</v>
+        <v>-0.005348119367219704</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1144304252438405</v>
+        <v>0.03402088957614945</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.1233657353239254</v>
+        <v>0.09776526863270819</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.1212054633928444</v>
+        <v>0.07484485768825751</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.1030277474481643</v>
+        <v>0.08034582798369636</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.09527664159470385</v>
+        <v>0.07737351854068479</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.12609877909961</v>
+        <v>0.05950299620038911</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.08235737247921328</v>
+        <v>0.06181034715377334</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.1276306044173902</v>
+        <v>0.07242764224409483</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.1636403911546384</v>
+        <v>0.09440297926161702</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.111772242138739</v>
+        <v>0.06899078578186196</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1299740739372822</v>
+        <v>0.09811293828710542</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.138322898777976</v>
+        <v>0.09136712242242365</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.1142355376154551</v>
+        <v>0.04114326555876482</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.1421635665380947</v>
+        <v>0.1249412196067067</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.09239866845279211</v>
+        <v>0.04559513632961525</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.1305196368114</v>
+        <v>0.09727797720614902</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.1049714281794469</v>
+        <v>0.0918736481024555</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.1359595500440426</v>
+        <v>0.07665428903137797</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.09601666389381112</v>
+        <v>0.05593708699796659</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.09542140088667676</v>
+        <v>0.01676112449618498</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.1175982071612049</v>
+        <v>0.0635689661534667</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.1096043689090889</v>
+        <v>0.0601214471856383</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.08156643043258686</v>
+        <v>0.0343945563156479</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.08765027328717724</v>
+        <v>0.0771592830427814</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.108901210876144</v>
+        <v>0.05479001039624604</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.1297495913172081</v>
+        <v>0.05873842742648985</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.02847241363985098</v>
+        <v>0.004405761758546831</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.07771769196669501</v>
+        <v>0.03443384992137313</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.07897023307431474</v>
+        <v>0.02763128536152959</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.1292233869727387</v>
+        <v>0.03462566997343742</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.1216848672922193</v>
+        <v>0.06355683427938595</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.117403476674557</v>
+        <v>0.04670936762404957</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.14282550860152</v>
+        <v>0.06929866919959388</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.1453961750893212</v>
+        <v>0.08098101401033597</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.1225358969570378</v>
+        <v>0.07410888012577999</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.1574536957257886</v>
+        <v>0.06962361623594934</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.1410301585990744</v>
+        <v>0.06949237653862292</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.08724075943059785</v>
+        <v>0.05474582177976936</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.1231012659183259</v>
+        <v>0.04762131754160875</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.08433168362798765</v>
+        <v>0.0280594345011652</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.1233404163398373</v>
+        <v>0.07791493009291089</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.09625835553785558</v>
+        <v>0.005893983001852477</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.07294131637081588</v>
+        <v>0.04684478255389873</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.0970903114293605</v>
+        <v>0.04202965904244301</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.1159495446575135</v>
+        <v>0.06099570502973652</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.1305584107473566</v>
+        <v>0.07257489884161078</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.1298393847373304</v>
+        <v>0.06325529283751911</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.1072704212068034</v>
+        <v>0.0898568273276478</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.1172008960778327</v>
+        <v>0.0862605615728589</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.08844890475383413</v>
+        <v>0.07925089811382592</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.1295520838838658</v>
+        <v>0.095825343919172</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.09125555691796444</v>
+        <v>0.08088991749478806</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.1374811896768966</v>
+        <v>0.08384747951087371</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.1048886640677236</v>
+        <v>0.04704534406843079</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.1003192491836696</v>
+        <v>0.08086632712624647</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.1085104792752503</v>
+        <v>0.08932196161576964</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.1180331850097359</v>
+        <v>0.06399922484874979</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.08804853242183594</v>
+        <v>0.0289562335123531</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.09611438931954837</v>
+        <v>0.04716461735505042</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.110166295095184</v>
+        <v>0.09185440849993808</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.1142369380776941</v>
+        <v>0.04593090741195685</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.1186741607380922</v>
+        <v>0.05418435710203563</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.1109993420363438</v>
+        <v>0.0785350040445203</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.05258591648517029</v>
+        <v>0.0165116704732744</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.114018136937629</v>
+        <v>0.05412883728339044</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.1017500341518174</v>
+        <v>0.05595464823583414</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.1262193740265287</v>
+        <v>0.05150062786474207</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.08839483775402067</v>
+        <v>0.05508365009942153</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.09751004954986527</v>
+        <v>0.05148663451021702</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.09897972331833892</v>
+        <v>0.04654332193654256</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.1174546592113916</v>
+        <v>0.03578728838292114</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.100550314863482</v>
+        <v>0.06785604860077278</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.1077662132046967</v>
+        <v>0.07777934571748556</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.1140349637727365</v>
+        <v>0.06560331490538229</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.1242002914963946</v>
+        <v>0.06344884727205137</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.09560892615780088</v>
+        <v>0.06111597042997034</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.07538093478750339</v>
+        <v>0.03132639435558315</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.09501552422640963</v>
+        <v>0.06259658697341518</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.08176947801581629</v>
+        <v>0.04079189522966275</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.100560668261124</v>
+        <v>0.07246418519917484</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.1198603727593022</v>
+        <v>0.09252312658472671</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.08178193150146135</v>
+        <v>0.06759320082318551</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.07295650514395664</v>
+        <v>0.04702768426522073</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.07017110785296521</v>
+        <v>0.0660828368782528</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.1039181111037729</v>
+        <v>0.06232758506832242</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.09709362422219592</v>
+        <v>0.0716181950336663</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.09548727537280333</v>
+        <v>0.07410154839009403</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.0886566780460703</v>
+        <v>0.05608611512</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.0911412395574962</v>
+        <v>0.05919565252173595</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.110998023385352</v>
+        <v>0.06747804529200364</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.1092678110568102</v>
+        <v>0.05663643211787337</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.1110033491787638</v>
+        <v>0.07442498990716657</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.1216251830223955</v>
+        <v>0.06980158652795673</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.09773674475458025</v>
+        <v>0.05358197480867655</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.1048017536309002</v>
+        <v>0.1009476034873912</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.112116446969788</v>
+        <v>0.09601820012957993</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.1015809632932148</v>
+        <v>0.06553385260972233</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.08273083697864433</v>
+        <v>0.05172076294076313</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.08286020792727626</v>
+        <v>0.0329616818929454</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.1167788389644331</v>
+        <v>0.07948417851625447</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.1040626509687893</v>
+        <v>0.02788676140343697</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.08173659292527147</v>
+        <v>0.05102425983622819</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.1226878667612065</v>
+        <v>0.05259110532631872</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.1000224583187549</v>
+        <v>0.0407044990931827</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.1131922117303638</v>
+        <v>0.04359749395876535</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.09500111781341253</v>
+        <v>0.02811467147107605</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.0997074446248449</v>
+        <v>0.03697343528022776</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.1033825232308101</v>
+        <v>0.0395274463818396</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.09425122210970122</v>
+        <v>0.02695455925418959</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.1349373056163684</v>
+        <v>0.06857056060829296</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.06278388473396877</v>
+        <v>-0.005798642610697177</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.109816245978932</v>
+        <v>0.03578816649269867</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.06450675800129832</v>
+        <v>-0.003146767816760066</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.07818820860666141</v>
+        <v>0.02465395626836219</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.1320308422641941</v>
+        <v>0.07365119802230026</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.09899365127031093</v>
+        <v>0.05517111391424</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.1212184318267278</v>
+        <v>0.05081940590357821</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.1185306971996945</v>
+        <v>0.03893661099662927</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.1014872943600941</v>
+        <v>0.06855270864221998</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.08386063696338647</v>
+        <v>0.071970733346559</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.09661825222953356</v>
+        <v>0.07268328749691996</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.09324763401891811</v>
+        <v>0.06677855016656331</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.1302304668016521</v>
+        <v>0.07574245712823365</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.09124190828212557</v>
+        <v>0.03339244272572209</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.1194872180707761</v>
+        <v>0.06209096429499104</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.1336214742243174</v>
+        <v>0.07676052466166491</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.1180681360133553</v>
+        <v>0.05843623665804921</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.1015390500074251</v>
+        <v>0.02853589293447116</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.113171864508188</v>
+        <v>0.06312053491363594</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.1293722196617161</v>
+        <v>0.08964048789606682</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.1339260245414345</v>
+        <v>0.05497966262846005</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.1583027339487892</v>
+        <v>0.05636914700823268</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.1309835879457451</v>
+        <v>0.06154492458318173</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.1217701870357647</v>
+        <v>0.09081657063847876</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.1251301818905269</v>
+        <v>0.03198380626996934</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.1441905469889285</v>
+        <v>0.03556771691828449</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.1414787776641287</v>
+        <v>0.07479747075349058</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.1353318303502054</v>
+        <v>0.05974092713681286</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.08142813401056229</v>
+        <v>0.01308692974433097</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.1260562782945054</v>
+        <v>0.04876107444693062</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.1167440735040733</v>
+        <v>0.06259561244731951</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.123851182711442</v>
+        <v>0.07272311347123732</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.1047207079360516</v>
+        <v>0.05400594767601343</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.113377776086771</v>
+        <v>0.05706450846742603</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.1158052115626975</v>
+        <v>0.08575292449481887</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.08973098317222929</v>
+        <v>0.02926111879673191</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.115126443048185</v>
+        <v>0.06889642642720359</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.1104906725952456</v>
+        <v>0.05296135224796563</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.1277080986728684</v>
+        <v>0.07735155107385272</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.1065669135093184</v>
+        <v>0.06023352175260337</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.147207815479524</v>
+        <v>0.06351232431471102</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.1513586823522377</v>
+        <v>0.1034304426448912</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.1214457007910432</v>
+        <v>0.07353763156930641</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.1382641541296614</v>
+        <v>0.08770798250206759</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.1131362817626416</v>
+        <v>0.09434316680144118</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.1223897376734506</v>
+        <v>0.09708504353197146</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.1129087273924346</v>
+        <v>0.07186185442036788</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.08973919339256256</v>
+        <v>0.05111163500687885</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.1137302702638237</v>
+        <v>0.04803166405789546</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.07736729043895225</v>
+        <v>0.07131791447059742</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.1178635322610019</v>
+        <v>0.08828809906072958</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.1309400811929524</v>
+        <v>0.06954926703117864</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.09330251192211687</v>
+        <v>0.0764860476187784</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.1179566809449609</v>
+        <v>0.04836010554850206</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.09609694837400307</v>
+        <v>0.07799011061632907</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.08986623953718291</v>
+        <v>0.08364254915285718</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.07496130518896017</v>
+        <v>0.03945933513865447</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.09378913925012071</v>
+        <v>0.05749449336799884</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.07840285534668219</v>
+        <v>0.042056792178154</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.08297022785792472</v>
+        <v>0.02434128039893712</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.1169095175485711</v>
+        <v>0.07171468415107812</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.138719240688319</v>
+        <v>0.1055538414567754</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.141528483897624</v>
+        <v>0.08191200756899138</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.09190154170868978</v>
+        <v>0.061052050455554</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.1250048314318193</v>
+        <v>0.08393811835416683</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.1059081459005602</v>
+        <v>0.05801036540459801</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.103384047428837</v>
+        <v>0.0608666604195867</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.1073241615235952</v>
+        <v>0.05282368034970927</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.1243783580371815</v>
+        <v>0.07451131259373801</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.1241335811235505</v>
+        <v>0.07637258656053521</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.08596592445232117</v>
+        <v>0.05713398608698845</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.06552602105678496</v>
+        <v>0.03753731356346671</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.09913542059481514</v>
+        <v>0.04878696238281569</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.08557566321533912</v>
+        <v>0.03111335700346589</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.09883108422034353</v>
+        <v>0.04746011443623156</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.1163589317742218</v>
+        <v>0.02453279191097341</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.1079843131904535</v>
+        <v>0.0774391263054731</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.1279882188259336</v>
+        <v>0.07586218617445312</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.1150718117675177</v>
+        <v>0.08445439532380572</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.1250459053374071</v>
+        <v>0.05596987337802901</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.1111660541493724</v>
+        <v>0.07929258674604278</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.131971848578823</v>
+        <v>0.09569385236591556</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.1379834755917139</v>
+        <v>0.1077320411285584</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.100798969903758</v>
+        <v>0.004345756262384583</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.1162384339029923</v>
+        <v>0.07227749813368702</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.09545026159497196</v>
+        <v>0.08798286436599299</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.1156577812712342</v>
+        <v>0.05641725628888816</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.138283658959643</v>
+        <v>0.03624311727881802</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.1057448162919809</v>
+        <v>0.07576906846419708</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.1001923782540466</v>
+        <v>0.08916039578668621</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.09958201432085678</v>
+        <v>0.03495311226418418</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.148406231687312</v>
+        <v>0.08171444622977811</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.131831618621403</v>
+        <v>0.08013801116072715</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.1191946751208345</v>
+        <v>0.06842468852596482</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.1312241310068553</v>
+        <v>0.1043633495980439</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.1369085809226115</v>
+        <v>0.06669267522244884</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.128525141758813</v>
+        <v>0.1095788253714174</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.1201661504422805</v>
+        <v>0.09487004041028109</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.113336746641959</v>
+        <v>0.06714840635721836</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.0938754934071661</v>
+        <v>0.05274176161253234</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.1097632763260159</v>
+        <v>0.0887007693988676</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.07876476812473054</v>
+        <v>0.03129054715517975</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.1251558539843357</v>
+        <v>0.06414128899497179</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.09991895256639245</v>
+        <v>0.06941041467701631</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_senti_lex_PMI.xlsx
+++ b/Data/Regression/news_index_senti_lex_PMI.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03171946724055712</v>
+        <v>0.1163196180197177</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03806111933130086</v>
+        <v>0.112228248286325</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0383408527437901</v>
+        <v>0.126284814849679</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08338051879735445</v>
+        <v>0.1502429737775594</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05828745759234846</v>
+        <v>0.1123929028610346</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03888771515056896</v>
+        <v>0.1190286925811518</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07815664948874522</v>
+        <v>0.1604088948610401</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05994022400978542</v>
+        <v>0.1500998421050648</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0988795337213689</v>
+        <v>0.1537002072159476</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09681928439885554</v>
+        <v>0.1543397332845309</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05954894315707288</v>
+        <v>0.115126600002778</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06075195995405326</v>
+        <v>0.1253979190064692</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03820970778601319</v>
+        <v>0.120764187199552</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05459625887834848</v>
+        <v>0.1074465174791636</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09705485725820995</v>
+        <v>0.1557197949766442</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06488808906007756</v>
+        <v>0.1181750590700883</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0119151219254207</v>
+        <v>0.09816144220031799</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03669945981347693</v>
+        <v>0.1084591962231694</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06375292497035569</v>
+        <v>0.1301253301649924</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06718845322941952</v>
+        <v>0.1402474487543599</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.06961166095379298</v>
+        <v>0.1318980203205235</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0860462922667907</v>
+        <v>0.164627867815988</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.05699077936319333</v>
+        <v>0.142078585232036</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.04781963535877661</v>
+        <v>0.1315379890096259</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.06663427390959623</v>
+        <v>0.1337898762119666</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0762134383256234</v>
+        <v>0.1283840787656413</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.05131353967976864</v>
+        <v>0.1349562805322425</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01145298250224945</v>
+        <v>0.1013280844253068</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04872361498700828</v>
+        <v>0.1182950157047532</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0598399168324957</v>
+        <v>0.1292074223796761</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0818581960274118</v>
+        <v>0.1462383836651403</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.07169583364348379</v>
+        <v>0.1147738490976781</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.04788792452278207</v>
+        <v>0.08791751206109268</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.08027011465554776</v>
+        <v>0.1404335422665995</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.06604992139613518</v>
+        <v>0.1221040108866973</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.03785248345057573</v>
+        <v>0.1103728761904155</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.08352353028813247</v>
+        <v>0.1447920376199298</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.08420228639695583</v>
+        <v>0.1421556734770542</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.06902466858748846</v>
+        <v>0.1368879735919109</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.08231101584902098</v>
+        <v>0.160227325074208</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.04871428766255684</v>
+        <v>0.1097489762089194</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.04621285908658449</v>
+        <v>0.1266511448635134</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.03293466569953939</v>
+        <v>0.1026602064871173</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.08284916136159334</v>
+        <v>0.1565449311032145</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.08183258327078334</v>
+        <v>0.156907172381603</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.07891244107600114</v>
+        <v>0.1449056867830135</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.09619483174891877</v>
+        <v>0.1691659885173887</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1045244566896622</v>
+        <v>0.1659887898502699</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.08336759851465363</v>
+        <v>0.133862841030309</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.06879491637194056</v>
+        <v>0.1282792620888708</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.07123543807765116</v>
+        <v>0.1513487613904493</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.06428844596853099</v>
+        <v>0.1470395965389361</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0928630392141603</v>
+        <v>0.1421361726098613</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.08377352671769331</v>
+        <v>0.1634593609758401</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1054720577156078</v>
+        <v>0.1710421921382095</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1076113051773079</v>
+        <v>0.1570732754599088</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.09828403542277622</v>
+        <v>0.1526397226991981</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1136160495774747</v>
+        <v>0.174657869260916</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.07106884311134955</v>
+        <v>0.1135890998966889</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.02160803790979513</v>
+        <v>0.09126939860936069</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.08953446488154075</v>
+        <v>0.1550764534860573</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.09587608354034725</v>
+        <v>0.1602394751035494</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.08611105465142672</v>
+        <v>0.1448579413569542</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.05565103334759332</v>
+        <v>0.1014842007581191</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0776634077565299</v>
+        <v>0.1614310355439231</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.04659588635754795</v>
+        <v>0.1055036537689932</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.06608038820512532</v>
+        <v>0.1293182686243724</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.09922007663848179</v>
+        <v>0.1536388011359083</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.04392987881511014</v>
+        <v>0.1049093479637747</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.03672222273479847</v>
+        <v>0.1020034637832356</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.03942150667259584</v>
+        <v>0.118115277378473</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.07221835301662255</v>
+        <v>0.1388980996374748</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.05763606394964961</v>
+        <v>0.1149265684163432</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0564743717095929</v>
+        <v>0.1450179261332799</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1009892930461206</v>
+        <v>0.1677149416854042</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.09061527653709242</v>
+        <v>0.1477391121801905</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.06205493700706851</v>
+        <v>0.1132919793354302</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.04950953335092026</v>
+        <v>0.1135594155759447</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.07534955573160496</v>
+        <v>0.1533844693424997</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.0734998634339688</v>
+        <v>0.1424986073476826</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.05773352941436136</v>
+        <v>0.1251476530427734</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.07849506133187595</v>
+        <v>0.1270095543282728</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02820373532420415</v>
+        <v>0.1115024928343257</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1030215320014788</v>
+        <v>0.1607332932029341</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.04736663691932476</v>
+        <v>0.1166795079724653</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.09480100869072894</v>
+        <v>0.1513971024999851</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.06454294465840603</v>
+        <v>0.1201209512392405</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.03798063341518462</v>
+        <v>0.1259148830533521</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.04611285681304098</v>
+        <v>0.1139497853163896</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.05091359215499709</v>
+        <v>0.1295123099208636</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.05978171214488388</v>
+        <v>0.104860998439516</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.04990007538272353</v>
+        <v>0.1338722092076126</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.0435434644738996</v>
+        <v>0.1246314105151639</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.06773606123389467</v>
+        <v>0.1212872663734808</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.03631743809050962</v>
+        <v>0.1046350641636858</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.07418867252017392</v>
+        <v>0.1287860563443221</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0181326410823388</v>
+        <v>0.07949116717799549</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.06922841540330074</v>
+        <v>0.1272679330303459</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.03262606600231858</v>
+        <v>0.1196161183881593</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1143179478266103</v>
+        <v>0.196640238144074</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.003227696520450541</v>
+        <v>0.07470112683273121</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.05237287179465812</v>
+        <v>0.08125730536849032</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.08770931698724234</v>
+        <v>0.137115690125893</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.0898440224998286</v>
+        <v>0.1298446242944768</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.07029730160758085</v>
+        <v>0.1218579520901498</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.07282821018586745</v>
+        <v>0.1302452267929588</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.07059450831699156</v>
+        <v>0.151627190954331</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1166932235761446</v>
+        <v>0.1543534792260467</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.07498666238937127</v>
+        <v>0.1515196678516623</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.09120482481036518</v>
+        <v>0.1761088237502332</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.07932941760660071</v>
+        <v>0.1320515320430305</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.08889872610651978</v>
+        <v>0.1588127204082262</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.07902486053901862</v>
+        <v>0.1332241604085619</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.08062941693767475</v>
+        <v>0.1153846472688617</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.1235805689809072</v>
+        <v>0.1703609109172651</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.07074707443234783</v>
+        <v>0.1333536200524592</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.07512847952341904</v>
+        <v>0.1293010391451867</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.06951777556595114</v>
+        <v>0.1296919862694517</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1217056193479542</v>
+        <v>0.1704971351944389</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.1079090386518288</v>
+        <v>0.1669077211731529</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.07649239666182321</v>
+        <v>0.1305059458298844</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.005348119367219704</v>
+        <v>0.07539096415244977</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.03402088957614945</v>
+        <v>0.1120875022735866</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.09776526863270819</v>
+        <v>0.1532646817376117</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.07484485768825751</v>
+        <v>0.1307361332021222</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.08034582798369636</v>
+        <v>0.1381050322161349</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.07737351854068479</v>
+        <v>0.1463643051925249</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.05950299620038911</v>
+        <v>0.1201664331556864</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.06181034715377334</v>
+        <v>0.136024801587483</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.07242764224409483</v>
+        <v>0.1336109396047818</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.09440297926161702</v>
+        <v>0.1675121307601204</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.06899078578186196</v>
+        <v>0.1384138927345236</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.09811293828710542</v>
+        <v>0.1701483266445905</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.09136712242242365</v>
+        <v>0.1623312174927773</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.04114326555876482</v>
+        <v>0.12280174871704</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.1249412196067067</v>
+        <v>0.1915801669482005</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.04559513632961525</v>
+        <v>0.1242548559682876</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.09727797720614902</v>
+        <v>0.1651402373750473</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.0918736481024555</v>
+        <v>0.1616633006096564</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.07665428903137797</v>
+        <v>0.1225733256304782</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.05593708699796659</v>
+        <v>0.1237069563652372</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.01676112449618498</v>
+        <v>0.08565460639693331</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.0635689661534667</v>
+        <v>0.1165003744534855</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.0601214471856383</v>
+        <v>0.1019703046357736</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.0343945563156479</v>
+        <v>0.1241891740858638</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.0771592830427814</v>
+        <v>0.1499608355261268</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.05479001039624604</v>
+        <v>0.1401341882570879</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.05873842742648985</v>
+        <v>0.1437656798241015</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.004405761758546831</v>
+        <v>0.06897775400547297</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.03443384992137313</v>
+        <v>0.1037763790408368</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.02763128536152959</v>
+        <v>0.0821360599470254</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.03462566997343742</v>
+        <v>0.1005902451077791</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.06355683427938595</v>
+        <v>0.1313638988415183</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.04670936762404957</v>
+        <v>0.106605028569275</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.06929866919959388</v>
+        <v>0.1341193973764174</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.08098101401033597</v>
+        <v>0.152754278536803</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.07410888012577999</v>
+        <v>0.1308166189257666</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.06962361623594934</v>
+        <v>0.1349832038331878</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.06949237653862292</v>
+        <v>0.1025345450818916</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.05474582177976936</v>
+        <v>0.1289214205841884</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.04762131754160875</v>
+        <v>0.09465752895575923</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.0280594345011652</v>
+        <v>0.1208220815260021</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.07791493009291089</v>
+        <v>0.138525335966113</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.005893983001852477</v>
+        <v>0.08512733929310611</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.04684478255389873</v>
+        <v>0.1095276728710732</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.04202965904244301</v>
+        <v>0.1315835656961537</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.06099570502973652</v>
+        <v>0.1194237368137543</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.07257489884161078</v>
+        <v>0.1399501005559849</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.06325529283751911</v>
+        <v>0.1439376180334174</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.0898568273276478</v>
+        <v>0.1357983581903293</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.0862605615728589</v>
+        <v>0.1503961336232342</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.07925089811382592</v>
+        <v>0.1538194907707951</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.095825343919172</v>
+        <v>0.1387788666199026</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.08088991749478806</v>
+        <v>0.1358196185887092</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.08384747951087371</v>
+        <v>0.1128061677699965</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.04704534406843079</v>
+        <v>0.1144003265889072</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.08086632712624647</v>
+        <v>0.1567087348166653</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.08932196161576964</v>
+        <v>0.149086325179045</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.06399922484874979</v>
+        <v>0.125734125583394</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.0289562335123531</v>
+        <v>0.1084206068588614</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.04716461735505042</v>
+        <v>0.1152541384494247</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.09185440849993808</v>
+        <v>0.1505847437462318</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.04593090741195685</v>
+        <v>0.1123374544247677</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.05418435710203563</v>
+        <v>0.1111869893120862</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.0785350040445203</v>
+        <v>0.1622061901641537</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.0165116704732744</v>
+        <v>0.1089220191403366</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.05412883728339044</v>
+        <v>0.1128137602452837</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.05595464823583414</v>
+        <v>0.1318198880576251</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.05150062786474207</v>
+        <v>0.1161875447335282</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.05508365009942153</v>
+        <v>0.1351231801264811</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.05148663451021702</v>
+        <v>0.1001268664120043</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.04654332193654256</v>
+        <v>0.1315351549357706</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.03578728838292114</v>
+        <v>0.1158240054336481</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.06785604860077278</v>
+        <v>0.1285593168175936</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.07777934571748556</v>
+        <v>0.1296815331971184</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.06560331490538229</v>
+        <v>0.1439004712326018</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.06344884727205137</v>
+        <v>0.1241529802748872</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.06111597042997034</v>
+        <v>0.1104432089215259</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.03132639435558315</v>
+        <v>0.07725275644241161</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.06259658697341518</v>
+        <v>0.134655799001983</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.04079189522966275</v>
+        <v>0.1221025794917876</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.07246418519917484</v>
+        <v>0.1393518871442284</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.09252312658472671</v>
+        <v>0.1490314833727567</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.06759320082318551</v>
+        <v>0.1397278176664202</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.04702768426522073</v>
+        <v>0.1163518260185186</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.0660828368782528</v>
+        <v>0.1378064818302736</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.06232758506832242</v>
+        <v>0.113158230841203</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.0716181950336663</v>
+        <v>0.1318137766292601</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.07410154839009403</v>
+        <v>0.1268002285036873</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.05608611512</v>
+        <v>0.1296902681829154</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.05919565252173595</v>
+        <v>0.1341402965893722</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.06747804529200364</v>
+        <v>0.1396613633321563</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.05663643211787337</v>
+        <v>0.1035131692161746</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.07442498990716657</v>
+        <v>0.1407603401509632</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.06980158652795673</v>
+        <v>0.1229158976688404</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.05358197480867655</v>
+        <v>0.1272101190302201</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.1009476034873912</v>
+        <v>0.1566459662644024</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.09601820012957993</v>
+        <v>0.1503273100010509</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.06553385260972233</v>
+        <v>0.134675905522926</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.05172076294076313</v>
+        <v>0.1143750079425262</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.0329616818929454</v>
+        <v>0.1359532200611202</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.07948417851625447</v>
+        <v>0.1287896763733934</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.02788676140343697</v>
+        <v>0.07778817681377719</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.05102425983622819</v>
+        <v>0.1558099978972049</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.05259110532631872</v>
+        <v>0.0901540499754582</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.0407044990931827</v>
+        <v>0.1366695310012407</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.04359749395876535</v>
+        <v>0.1078175250600959</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.02811467147107605</v>
+        <v>0.1139180585747594</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.03697343528022776</v>
+        <v>0.1032620384794495</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.0395274463818396</v>
+        <v>0.08741959242331072</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.02695455925418959</v>
+        <v>0.1018868728703644</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.06857056060829296</v>
+        <v>0.1608645023607878</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-0.005798642610697177</v>
+        <v>0.05640974486669888</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.03578816649269867</v>
+        <v>0.1086940929411711</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-0.003146767816760066</v>
+        <v>0.08927889711682516</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.02465395626836219</v>
+        <v>0.06984626098629226</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.07365119802230026</v>
+        <v>0.1364778554679602</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.05517111391424</v>
+        <v>0.1215676687815739</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.05081940590357821</v>
+        <v>0.1112749582504568</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.03893661099662927</v>
+        <v>0.1075846366087248</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.06855270864221998</v>
+        <v>0.1428397037569111</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.071970733346559</v>
+        <v>0.1288342294434846</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.07268328749691996</v>
+        <v>0.1344287838218648</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.06677855016656331</v>
+        <v>0.1258495655804711</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.07574245712823365</v>
+        <v>0.1403336236240804</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.03339244272572209</v>
+        <v>0.1103898870621302</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.06209096429499104</v>
+        <v>0.1177299628388546</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.07676052466166491</v>
+        <v>0.1503535853125431</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.05843623665804921</v>
+        <v>0.1070287788627786</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.02853589293447116</v>
+        <v>0.1172184090884384</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.06312053491363594</v>
+        <v>0.1238669063555743</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.08964048789606682</v>
+        <v>0.1545692525541308</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.05497966262846005</v>
+        <v>0.1316485715077706</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.05636914700823268</v>
+        <v>0.1382055630558584</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.06154492458318173</v>
+        <v>0.131705178133841</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.09081657063847876</v>
+        <v>0.148619333223219</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.03198380626996934</v>
+        <v>0.1068122198003996</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.03556771691828449</v>
+        <v>0.113671143818968</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.07479747075349058</v>
+        <v>0.1439731876931564</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.05974092713681286</v>
+        <v>0.1150230314726698</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.01308692974433097</v>
+        <v>0.08911963347248456</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.04876107444693062</v>
+        <v>0.1032667792069794</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.06259561244731951</v>
+        <v>0.1265052611525145</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.07272311347123732</v>
+        <v>0.1421823414799412</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.05400594767601343</v>
+        <v>0.1148149012989704</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.05706450846742603</v>
+        <v>0.1290353698598188</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.08575292449481887</v>
+        <v>0.160838115508422</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.02926111879673191</v>
+        <v>0.1082598452958641</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.06889642642720359</v>
+        <v>0.137702929792164</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.05296135224796563</v>
+        <v>0.1032003645362344</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.07735155107385272</v>
+        <v>0.1395045561347342</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.06023352175260337</v>
+        <v>0.1159679437206343</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.06351232431471102</v>
+        <v>0.1316308000911535</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.1034304426448912</v>
+        <v>0.1656540063569504</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.07353763156930641</v>
+        <v>0.1462204848909691</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.08770798250206759</v>
+        <v>0.1607206051333222</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.09434316680144118</v>
+        <v>0.1469627408086741</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.09708504353197146</v>
+        <v>0.1712211047264073</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.07186185442036788</v>
+        <v>0.1450958377201539</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.05111163500687885</v>
+        <v>0.1173175379228068</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.04803166405789546</v>
+        <v>0.1285127710307771</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.07131791447059742</v>
+        <v>0.153213213448445</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.08828809906072958</v>
+        <v>0.1550810194406729</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.06954926703117864</v>
+        <v>0.1508831344189366</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.0764860476187784</v>
+        <v>0.1503502309390821</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.04836010554850206</v>
+        <v>0.1192119965941741</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.07799011061632907</v>
+        <v>0.1533271422849501</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.08364254915285718</v>
+        <v>0.1467624896465314</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.03945933513865447</v>
+        <v>0.1103985558401127</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.05749449336799884</v>
+        <v>0.1216567940750646</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.042056792178154</v>
+        <v>0.112171666140061</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.02434128039893712</v>
+        <v>0.1196266630070732</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.07171468415107812</v>
+        <v>0.1692922328843998</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.1055538414567754</v>
+        <v>0.1669561608551187</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.08191200756899138</v>
+        <v>0.1469714898258236</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.061052050455554</v>
+        <v>0.1456480602556376</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.08393811835416683</v>
+        <v>0.1670438761447758</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.05801036540459801</v>
+        <v>0.1228231751089777</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.0608666604195867</v>
+        <v>0.1357662244361679</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.05282368034970927</v>
+        <v>0.1124571556879739</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.07451131259373801</v>
+        <v>0.1528573038299052</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.07637258656053521</v>
+        <v>0.1514840778380397</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.05713398608698845</v>
+        <v>0.1282270044042937</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.03753731356346671</v>
+        <v>0.1181485262644139</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.04878696238281569</v>
+        <v>0.1297845668856372</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.03111335700346589</v>
+        <v>0.09754291362352596</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.04746011443623156</v>
+        <v>0.1223914385447513</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.02453279191097341</v>
+        <v>0.113013702085587</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.0774391263054731</v>
+        <v>0.148984165641832</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.07586218617445312</v>
+        <v>0.1227283759282116</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.08445439532380572</v>
+        <v>0.1624756078984213</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.05596987337802901</v>
+        <v>0.1055068371323641</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.07929258674604278</v>
+        <v>0.1555430190739829</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.09569385236591556</v>
+        <v>0.1620517219561918</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.1077320411285584</v>
+        <v>0.1706264954807573</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.004345756262384583</v>
+        <v>0.06838302548669413</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.07227749813368702</v>
+        <v>0.1273379083821383</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.08798286436599299</v>
+        <v>0.1512386605022849</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.05641725628888816</v>
+        <v>0.147540680783392</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.03624311727881802</v>
+        <v>0.101487072614713</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.07576906846419708</v>
+        <v>0.1284177562258718</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.08916039578668621</v>
+        <v>0.143186085389891</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.03495311226418418</v>
+        <v>0.1016393630821062</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.08171444622977811</v>
+        <v>0.1378851908464632</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.08013801116072715</v>
+        <v>0.1596525183024949</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.06842468852596482</v>
+        <v>0.1131271783762701</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.1043633495980439</v>
+        <v>0.1397533239427916</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.06669267522244884</v>
+        <v>0.1331962258276067</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.1095788253714174</v>
+        <v>0.1749246663273111</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.09487004041028109</v>
+        <v>0.160531990402213</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.06714840635721836</v>
+        <v>0.1431287025324206</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.05274176161253234</v>
+        <v>0.1092115882561747</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.0887007693988676</v>
+        <v>0.1379548842140253</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.03129054715517975</v>
+        <v>0.0956814768011934</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.06414128899497179</v>
+        <v>0.1254017924198926</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.06941041467701631</v>
+        <v>0.1240305483510037</v>
       </c>
     </row>
   </sheetData>
